--- a/perforkid/database/form_teacher.xlsx
+++ b/perforkid/database/form_teacher.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_code_Project\project_childcare_mobileapp\perforkid\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EE552C-F783-4910-8C2C-89EA138B9C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815C6C61-3487-4368-9B81-D2BBDCDD67A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13185" yWindow="2850" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,25 +27,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
-    <t>ลำดับ</t>
-  </si>
-  <si>
-    <t>รหัสประจำตัว</t>
-  </si>
-  <si>
-    <t>เบอร์โทร</t>
-  </si>
-  <si>
     <t>099-999-9999</t>
-  </si>
-  <si>
-    <t>ชื่อ-สกุล</t>
-  </si>
-  <si>
-    <t>อีเมล</t>
-  </si>
-  <si>
-    <t>ห้องที่สอน</t>
   </si>
   <si>
     <t>1/1</t>
@@ -55,9 +37,6 @@
   </si>
   <si>
     <t>sompong@gmail.com</t>
-  </si>
-  <si>
-    <t>ที่อยู่ที่ติดต่อได้</t>
   </si>
   <si>
     <t>0</t>
@@ -78,13 +57,34 @@
     <t>somchai@gmail.com</t>
   </si>
   <si>
-    <t>ห้องประจำชั้น</t>
-  </si>
-  <si>
     <t>57/85 กรุงเทพ ประเทศไทย 10000</t>
   </si>
   <si>
     <t>12/34 กรุงเทพ ประเทศไทย 10000</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>name-surname</t>
+  </si>
+  <si>
+    <t>class-room</t>
+  </si>
+  <si>
+    <t>teaching-room</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>address</t>
   </si>
 </sst>
 </file>
@@ -728,28 +728,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -760,48 +760,48 @@
         <v>123456</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>9</v>
-      </c>
       <c r="H2" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">

--- a/perforkid/database/form_teacher.xlsx
+++ b/perforkid/database/form_teacher.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_code_Project\project_childcare_mobileapp\perforkid\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Perawit\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815C6C61-3487-4368-9B81-D2BBDCDD67A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2041AF43-A807-4FFD-AAB8-DDC8DCD8D6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13185" yWindow="2850" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>099-999-9999</t>
   </si>
@@ -66,9 +66,6 @@
     <t>index</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>name-surname</t>
   </si>
   <si>
@@ -85,6 +82,18 @@
   </si>
   <si>
     <t>address</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>teacher-ID</t>
   </si>
 </sst>
 </file>
@@ -707,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -720,39 +729,42 @@
     <col min="3" max="3" width="23.375" style="5" customWidth="1"/>
     <col min="4" max="4" width="13" style="16" customWidth="1"/>
     <col min="5" max="5" width="26.375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="23.125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="62.25" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="5"/>
+    <col min="6" max="7" width="17.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="23.125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="62.25" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="8.75" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
         <v>0</v>
       </c>
@@ -769,16 +781,19 @@
         <v>2</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -795,16 +810,19 @@
         <v>2</v>
       </c>
       <c r="F3" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="H3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="I3" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>1</v>
       </c>
@@ -814,9 +832,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H4" s="8"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>2</v>
       </c>
@@ -826,9 +845,10 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>3</v>
       </c>
@@ -838,9 +858,10 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>4</v>
       </c>
@@ -850,9 +871,10 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>5</v>
       </c>
@@ -862,9 +884,10 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>6</v>
       </c>
@@ -874,9 +897,10 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H9" s="8"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>7</v>
       </c>
@@ -886,9 +910,10 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>8</v>
       </c>
@@ -898,9 +923,10 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H11" s="8"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>9</v>
       </c>
@@ -910,9 +936,10 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H12" s="8"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>10</v>
       </c>
@@ -922,9 +949,10 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>11</v>
       </c>
@@ -934,9 +962,10 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>12</v>
       </c>
@@ -946,9 +975,10 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>13</v>
       </c>
@@ -958,9 +988,10 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>14</v>
       </c>
@@ -970,9 +1001,10 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H17" s="8"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>15</v>
       </c>
@@ -982,9 +1014,10 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H18" s="8"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>16</v>
       </c>
@@ -994,9 +1027,10 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H19" s="8"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>17</v>
       </c>
@@ -1006,9 +1040,10 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H20" s="8"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>18</v>
       </c>
@@ -1018,9 +1053,10 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
         <v>19</v>
       </c>
@@ -1030,9 +1066,10 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>20</v>
       </c>
@@ -1042,9 +1079,10 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
         <v>21</v>
       </c>
@@ -1054,9 +1092,10 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>22</v>
       </c>
@@ -1066,9 +1105,10 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H25" s="8"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <v>23</v>
       </c>
@@ -1078,9 +1118,10 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H26" s="8"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>24</v>
       </c>
@@ -1090,9 +1131,10 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H27" s="8"/>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>25</v>
       </c>
@@ -1102,9 +1144,10 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H28" s="8"/>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>26</v>
       </c>
@@ -1114,9 +1157,10 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="9"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H29" s="8"/>
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
         <v>27</v>
       </c>
@@ -1126,9 +1170,10 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H30" s="8"/>
+      <c r="I30" s="9"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
         <v>28</v>
       </c>
@@ -1138,9 +1183,10 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H31" s="8"/>
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
         <v>29</v>
       </c>
@@ -1150,9 +1196,10 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
-      <c r="H32" s="9"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H32" s="8"/>
+      <c r="I32" s="9"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>30</v>
       </c>
@@ -1162,9 +1209,10 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H33" s="8"/>
+      <c r="I33" s="9"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
         <v>31</v>
       </c>
@@ -1174,9 +1222,10 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H34" s="8"/>
+      <c r="I34" s="9"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <v>32</v>
       </c>
@@ -1186,9 +1235,10 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H35" s="8"/>
+      <c r="I35" s="9"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
         <v>33</v>
       </c>
@@ -1198,9 +1248,10 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
-      <c r="H36" s="9"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H36" s="8"/>
+      <c r="I36" s="9"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
         <v>34</v>
       </c>
@@ -1210,9 +1261,10 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
-      <c r="H37" s="9"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H37" s="8"/>
+      <c r="I37" s="9"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="14">
         <v>35</v>
       </c>
@@ -1222,9 +1274,10 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H38" s="8"/>
+      <c r="I38" s="9"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="14">
         <v>36</v>
       </c>
@@ -1234,9 +1287,10 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="9"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H39" s="8"/>
+      <c r="I39" s="9"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="14">
         <v>37</v>
       </c>
@@ -1246,9 +1300,10 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
-      <c r="H40" s="9"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H40" s="8"/>
+      <c r="I40" s="9"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="14">
         <v>38</v>
       </c>
@@ -1258,9 +1313,10 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="9"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H41" s="8"/>
+      <c r="I41" s="9"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="14">
         <v>39</v>
       </c>
@@ -1270,9 +1326,10 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
-      <c r="H42" s="9"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H42" s="8"/>
+      <c r="I42" s="9"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="14">
         <v>40</v>
       </c>
@@ -1282,9 +1339,10 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="9"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H43" s="8"/>
+      <c r="I43" s="9"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="14">
         <v>41</v>
       </c>
@@ -1294,9 +1352,10 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
-      <c r="H44" s="9"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H44" s="8"/>
+      <c r="I44" s="9"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="14">
         <v>42</v>
       </c>
@@ -1306,9 +1365,10 @@
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="9"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H45" s="8"/>
+      <c r="I45" s="9"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="14">
         <v>43</v>
       </c>
@@ -1318,9 +1378,10 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
-      <c r="H46" s="9"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H46" s="8"/>
+      <c r="I46" s="9"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="14">
         <v>44</v>
       </c>
@@ -1330,9 +1391,10 @@
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="9"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H47" s="8"/>
+      <c r="I47" s="9"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="14">
         <v>45</v>
       </c>
@@ -1342,9 +1404,10 @@
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
-      <c r="H48" s="9"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H48" s="8"/>
+      <c r="I48" s="9"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="14">
         <v>46</v>
       </c>
@@ -1354,9 +1417,10 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="9"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H49" s="8"/>
+      <c r="I49" s="9"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="14">
         <v>47</v>
       </c>
@@ -1366,9 +1430,10 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
-      <c r="H50" s="9"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H50" s="8"/>
+      <c r="I50" s="9"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="14">
         <v>48</v>
       </c>
@@ -1378,9 +1443,10 @@
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="9"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H51" s="8"/>
+      <c r="I51" s="9"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="14">
         <v>49</v>
       </c>
@@ -1390,9 +1456,10 @@
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
-      <c r="H52" s="9"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H52" s="8"/>
+      <c r="I52" s="9"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="14">
         <v>50</v>
       </c>
@@ -1402,9 +1469,10 @@
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
-      <c r="H53" s="9"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H53" s="8"/>
+      <c r="I53" s="9"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="14">
         <v>51</v>
       </c>
@@ -1414,9 +1482,10 @@
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
-      <c r="H54" s="9"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H54" s="8"/>
+      <c r="I54" s="9"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="14">
         <v>52</v>
       </c>
@@ -1426,9 +1495,10 @@
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
-      <c r="H55" s="9"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H55" s="8"/>
+      <c r="I55" s="9"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="14">
         <v>53</v>
       </c>
@@ -1438,9 +1508,10 @@
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
-      <c r="H56" s="9"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H56" s="8"/>
+      <c r="I56" s="9"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="14">
         <v>54</v>
       </c>
@@ -1450,9 +1521,10 @@
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
-      <c r="H57" s="9"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H57" s="8"/>
+      <c r="I57" s="9"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="14">
         <v>55</v>
       </c>
@@ -1462,9 +1534,10 @@
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
-      <c r="H58" s="9"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H58" s="8"/>
+      <c r="I58" s="9"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="14">
         <v>56</v>
       </c>
@@ -1474,9 +1547,10 @@
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
-      <c r="H59" s="9"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H59" s="8"/>
+      <c r="I59" s="9"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="14">
         <v>57</v>
       </c>
@@ -1486,9 +1560,10 @@
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
-      <c r="H60" s="9"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H60" s="8"/>
+      <c r="I60" s="9"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="14">
         <v>58</v>
       </c>
@@ -1498,9 +1573,10 @@
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
-      <c r="H61" s="9"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H61" s="8"/>
+      <c r="I61" s="9"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="14">
         <v>59</v>
       </c>
@@ -1510,9 +1586,10 @@
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
-      <c r="H62" s="9"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H62" s="8"/>
+      <c r="I62" s="9"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="14">
         <v>60</v>
       </c>
@@ -1522,9 +1599,10 @@
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
-      <c r="H63" s="9"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H63" s="8"/>
+      <c r="I63" s="9"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="14">
         <v>61</v>
       </c>
@@ -1534,9 +1612,10 @@
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
-      <c r="H64" s="9"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H64" s="8"/>
+      <c r="I64" s="9"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="14">
         <v>62</v>
       </c>
@@ -1546,9 +1625,10 @@
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
-      <c r="H65" s="9"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H65" s="8"/>
+      <c r="I65" s="9"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="14">
         <v>63</v>
       </c>
@@ -1558,9 +1638,10 @@
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
-      <c r="H66" s="9"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H66" s="8"/>
+      <c r="I66" s="9"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="14">
         <v>64</v>
       </c>
@@ -1570,9 +1651,10 @@
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
-      <c r="H67" s="9"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H67" s="8"/>
+      <c r="I67" s="9"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="14">
         <v>65</v>
       </c>
@@ -1582,9 +1664,10 @@
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
-      <c r="H68" s="9"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H68" s="8"/>
+      <c r="I68" s="9"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="14">
         <v>66</v>
       </c>
@@ -1594,9 +1677,10 @@
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
-      <c r="H69" s="9"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H69" s="8"/>
+      <c r="I69" s="9"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="14">
         <v>67</v>
       </c>
@@ -1606,9 +1690,10 @@
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
-      <c r="H70" s="9"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H70" s="8"/>
+      <c r="I70" s="9"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="14">
         <v>68</v>
       </c>
@@ -1618,9 +1703,10 @@
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
-      <c r="H71" s="9"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H71" s="8"/>
+      <c r="I71" s="9"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="14">
         <v>69</v>
       </c>
@@ -1630,9 +1716,10 @@
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
-      <c r="H72" s="9"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H72" s="8"/>
+      <c r="I72" s="9"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="14">
         <v>70</v>
       </c>
@@ -1642,9 +1729,10 @@
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
-      <c r="H73" s="9"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H73" s="8"/>
+      <c r="I73" s="9"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="14">
         <v>71</v>
       </c>
@@ -1654,9 +1742,10 @@
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
-      <c r="H74" s="9"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H74" s="8"/>
+      <c r="I74" s="9"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="14">
         <v>72</v>
       </c>
@@ -1666,9 +1755,10 @@
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
-      <c r="H75" s="9"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H75" s="8"/>
+      <c r="I75" s="9"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="14">
         <v>73</v>
       </c>
@@ -1678,9 +1768,10 @@
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
-      <c r="H76" s="9"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H76" s="8"/>
+      <c r="I76" s="9"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="14">
         <v>74</v>
       </c>
@@ -1690,9 +1781,10 @@
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
-      <c r="H77" s="9"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H77" s="8"/>
+      <c r="I77" s="9"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="14">
         <v>75</v>
       </c>
@@ -1702,9 +1794,10 @@
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
-      <c r="H78" s="9"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H78" s="8"/>
+      <c r="I78" s="9"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="14">
         <v>76</v>
       </c>
@@ -1714,9 +1807,10 @@
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
-      <c r="H79" s="9"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H79" s="8"/>
+      <c r="I79" s="9"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="14">
         <v>77</v>
       </c>
@@ -1726,9 +1820,10 @@
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
-      <c r="H80" s="9"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H80" s="8"/>
+      <c r="I80" s="9"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="14">
         <v>78</v>
       </c>
@@ -1738,9 +1833,10 @@
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
-      <c r="H81" s="9"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H81" s="8"/>
+      <c r="I81" s="9"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="14">
         <v>79</v>
       </c>
@@ -1750,9 +1846,10 @@
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
-      <c r="H82" s="9"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H82" s="8"/>
+      <c r="I82" s="9"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="14">
         <v>80</v>
       </c>
@@ -1762,9 +1859,10 @@
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
-      <c r="H83" s="9"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H83" s="8"/>
+      <c r="I83" s="9"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="14">
         <v>81</v>
       </c>
@@ -1774,9 +1872,10 @@
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
-      <c r="H84" s="9"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H84" s="8"/>
+      <c r="I84" s="9"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="14">
         <v>82</v>
       </c>
@@ -1786,9 +1885,10 @@
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
-      <c r="H85" s="9"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H85" s="8"/>
+      <c r="I85" s="9"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="14">
         <v>83</v>
       </c>
@@ -1798,9 +1898,10 @@
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
-      <c r="H86" s="9"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H86" s="8"/>
+      <c r="I86" s="9"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="14">
         <v>84</v>
       </c>
@@ -1810,9 +1911,10 @@
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
-      <c r="H87" s="9"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H87" s="8"/>
+      <c r="I87" s="9"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="14">
         <v>85</v>
       </c>
@@ -1822,9 +1924,10 @@
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
-      <c r="H88" s="9"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H88" s="8"/>
+      <c r="I88" s="9"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="14">
         <v>86</v>
       </c>
@@ -1834,9 +1937,10 @@
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
-      <c r="H89" s="9"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H89" s="8"/>
+      <c r="I89" s="9"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="14">
         <v>87</v>
       </c>
@@ -1846,9 +1950,10 @@
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
-      <c r="H90" s="9"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H90" s="8"/>
+      <c r="I90" s="9"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="14">
         <v>88</v>
       </c>
@@ -1858,9 +1963,10 @@
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
-      <c r="H91" s="9"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H91" s="8"/>
+      <c r="I91" s="9"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="14">
         <v>89</v>
       </c>
@@ -1870,9 +1976,10 @@
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
-      <c r="H92" s="9"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H92" s="8"/>
+      <c r="I92" s="9"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="14">
         <v>90</v>
       </c>
@@ -1882,9 +1989,10 @@
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
-      <c r="H93" s="9"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H93" s="8"/>
+      <c r="I93" s="9"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="14">
         <v>91</v>
       </c>
@@ -1894,9 +2002,10 @@
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
-      <c r="H94" s="9"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H94" s="8"/>
+      <c r="I94" s="9"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="14">
         <v>92</v>
       </c>
@@ -1906,9 +2015,10 @@
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
-      <c r="H95" s="9"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H95" s="8"/>
+      <c r="I95" s="9"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="14">
         <v>93</v>
       </c>
@@ -1918,9 +2028,10 @@
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
-      <c r="H96" s="9"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H96" s="8"/>
+      <c r="I96" s="9"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="14">
         <v>94</v>
       </c>
@@ -1930,9 +2041,10 @@
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
-      <c r="H97" s="9"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H97" s="8"/>
+      <c r="I97" s="9"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="14">
         <v>95</v>
       </c>
@@ -1942,9 +2054,10 @@
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
-      <c r="H98" s="9"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H98" s="8"/>
+      <c r="I98" s="9"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="14">
         <v>96</v>
       </c>
@@ -1954,9 +2067,10 @@
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
-      <c r="H99" s="9"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H99" s="8"/>
+      <c r="I99" s="9"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="14">
         <v>97</v>
       </c>
@@ -1966,9 +2080,10 @@
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
-      <c r="H100" s="9"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H100" s="8"/>
+      <c r="I100" s="9"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="14">
         <v>98</v>
       </c>
@@ -1978,9 +2093,10 @@
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
-      <c r="H101" s="9"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H101" s="8"/>
+      <c r="I101" s="9"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="14">
         <v>99</v>
       </c>
@@ -1990,9 +2106,10 @@
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
-      <c r="H102" s="9"/>
-    </row>
-    <row r="103" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H102" s="8"/>
+      <c r="I102" s="9"/>
+    </row>
+    <row r="103" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="15">
         <v>100</v>
       </c>
@@ -2002,14 +2119,11 @@
       <c r="E103" s="10"/>
       <c r="F103" s="10"/>
       <c r="G103" s="10"/>
-      <c r="H103" s="11"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="11"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{9FE0C492-DE35-47D9-ADCE-3888A24703A4}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{7B34D2FD-D454-45BB-8EB8-5EF1C30FD7BE}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>